--- a/biology/Botanique/Semiarundinaria/Semiarundinaria.xlsx
+++ b/biology/Botanique/Semiarundinaria/Semiarundinaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Semiarundinaria est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire de Chine et du Japon, qui comprend sept espèces.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Semiarundinaria sont des bambous rhizomateux sempervirents, dont les tiges ligneuses (chaumes), aux entrenœuds creux, peuvent atteindre de 3 à 10 mètres de haut et 4 cm de diamètre[2].
-Ce sont des espèces tétraploïdes qui comptent 48 chromosomes (2n = 4x = 48)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Semiarundinaria sont des bambous rhizomateux sempervirents, dont les tiges ligneuses (chaumes), aux entrenœuds creux, peuvent atteindre de 3 à 10 mètres de haut et 4 cm de diamètre.
+Ce sont des espèces tétraploïdes qui comptent 48 chromosomes (2n = 4x = 48).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (6 février 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (6 février 2018) :
 Semiarundinaria densiflora (Rendle) T.H.Wen
 Semiarundinaria fastuosa (Mitford) Makino
 Semiarundinaria fortis Koidz.
